--- a/Daily Planner.xlsx
+++ b/Daily Planner.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,14 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -150,17 +158,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -169,30 +192,30 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,8 +523,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,217 +534,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="10" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -730,6 +753,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
@@ -746,15 +778,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" scale="93" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
